--- a/src/category_import_template.xlsx
+++ b/src/category_import_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>شوربة</t>
   </si>
   <si>
-    <t>عصائر طازجة</t>
-  </si>
-  <si>
     <t>كوكتيلات</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>صواني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصائر فريش </t>
+  </si>
+  <si>
+    <t>الاضافات</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +521,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -526,7 +529,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -534,7 +537,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -542,7 +545,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -550,7 +553,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -574,7 +577,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -582,7 +585,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -590,7 +593,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -598,9 +601,17 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
         <v>14</v>
       </c>
     </row>
